--- a/Decision_Science/Data_1.xlsx
+++ b/Decision_Science/Data_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27321"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - University Of Cambridge\Imperial_Teaching\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/freddieugo/Documents/GitHub/Conservation_Repo/Decision_Science/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="175" documentId="13_ncr:1_{69831787-3991-453A-9837-F967F83757DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D45A4919-0436-4EFA-8320-4F41D3389230}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E67E28-E3BE-9747-A1B7-8EE7938144DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{B48AA9B6-7A0F-4528-9BEB-FD0629B926DE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{B48AA9B6-7A0F-4528-9BEB-FD0629B926DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
   <si>
     <t>Information on the data</t>
   </si>
@@ -177,12 +177,19 @@
     <t>Could say do A,B,F and part of D as D 
 has not been tested and also will benefiit a great amount of the eco region. Also worth mentioning that A does bad if you consider total area of eco region not directly helped, but better to consider total area as a multiplier as invasive predators can spread.</t>
   </si>
+  <si>
+    <t>NOTE: WANT TO DO PROPORTION 
+F (ACTION AREA+ CURRENT AREA)/ TOTAL AREA</t>
+  </si>
+  <si>
+    <t>ONLY NEED DATA ON SPREADSHEET. USE EXTRA READING JUST FOR JUSTIFICATION</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,6 +216,7 @@
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -868,34 +876,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{974F0C87-7151-48A3-9A40-D7AA3062EAE9}">
-  <dimension ref="A1:T30"/>
+  <dimension ref="A1:T27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" customWidth="1"/>
-    <col min="2" max="2" width="3.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" customWidth="1"/>
-    <col min="10" max="10" width="25.140625" customWidth="1"/>
-    <col min="11" max="11" width="21.5703125" customWidth="1"/>
-    <col min="12" max="12" width="35.42578125" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" customWidth="1"/>
+    <col min="7" max="7" width="13.5" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" customWidth="1"/>
+    <col min="10" max="10" width="25.1640625" customWidth="1"/>
+    <col min="11" max="11" width="21.5" customWidth="1"/>
+    <col min="12" max="12" width="35.5" customWidth="1"/>
+    <col min="13" max="13" width="20.33203125" customWidth="1"/>
     <col min="14" max="14" width="13" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" customWidth="1"/>
-    <col min="16" max="16" width="18.140625" customWidth="1"/>
-    <col min="17" max="17" width="14.140625" customWidth="1"/>
+    <col min="15" max="15" width="13.5" customWidth="1"/>
+    <col min="16" max="16" width="18.1640625" customWidth="1"/>
+    <col min="17" max="17" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="18.75">
+    <row r="1" spans="1:20" ht="19" x14ac:dyDescent="0.2">
       <c r="C1" s="30" t="s">
         <v>0</v>
       </c>
@@ -906,7 +914,7 @@
       <c r="H1" s="31"/>
       <c r="I1" s="32"/>
     </row>
-    <row r="2" spans="1:20" ht="229.5" customHeight="1">
+    <row r="2" spans="1:20" ht="229.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="33" t="s">
@@ -918,7 +926,9 @@
       <c r="G2" s="34"/>
       <c r="H2" s="34"/>
       <c r="I2" s="35"/>
-      <c r="J2" s="36"/>
+      <c r="J2" s="36" t="s">
+        <v>33</v>
+      </c>
       <c r="K2" s="36"/>
       <c r="L2" s="36"/>
       <c r="M2" s="36"/>
@@ -930,7 +940,7 @@
       <c r="S2" s="36"/>
       <c r="T2" s="36"/>
     </row>
-    <row r="3" spans="1:20" ht="15">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="J3" t="s">
         <v>2</v>
       </c>
@@ -941,7 +951,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="64.5" customHeight="1">
+    <row r="4" spans="1:20" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="37" t="s">
         <v>5</v>
       </c>
@@ -961,7 +971,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="45.75">
+    <row r="5" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="C5" s="38"/>
       <c r="D5" s="8" t="s">
         <v>10</v>
@@ -982,7 +992,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="99" customHeight="1">
+    <row r="6" spans="1:20" ht="99" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="10" t="s">
         <v>12</v>
       </c>
@@ -1008,7 +1018,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="30.75">
+    <row r="7" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="C7" s="10" t="s">
         <v>14</v>
       </c>
@@ -1031,7 +1041,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="121.5">
+    <row r="8" spans="1:20" ht="112" x14ac:dyDescent="0.2">
       <c r="C8" s="10" t="s">
         <v>15</v>
       </c>
@@ -1057,7 +1067,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="76.5">
+    <row r="9" spans="1:20" ht="80" x14ac:dyDescent="0.2">
       <c r="C9" s="10" t="s">
         <v>17</v>
       </c>
@@ -1083,7 +1093,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="30.75">
+    <row r="10" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="C10" s="11" t="s">
         <v>19</v>
       </c>
@@ -1110,7 +1120,7 @@
         <v>4309110</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="30.75">
+    <row r="11" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="C11" s="15" t="s">
         <v>20</v>
       </c>
@@ -1148,7 +1158,7 @@
       </c>
       <c r="L11" s="23"/>
     </row>
-    <row r="12" spans="1:20" s="13" customFormat="1" ht="30.75">
+    <row r="12" spans="1:20" s="13" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="C12" s="17" t="s">
         <v>21</v>
       </c>
@@ -1185,7 +1195,7 @@
         <v>850585.16666666663</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15.75">
+    <row r="13" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="C13" s="15"/>
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
@@ -1200,32 +1210,32 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="30.75">
+    <row r="14" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="C14" s="12" t="s">
         <v>23</v>
       </c>
       <c r="D14">
-        <f>D6/(D10*D7)</f>
+        <f t="shared" ref="D14:I14" si="2">D6/(D10*D7)</f>
         <v>2.7139492238052417E-4</v>
       </c>
       <c r="E14">
-        <f>E6/(E10*E7)</f>
+        <f t="shared" si="2"/>
         <v>6.0266946435857081E-4</v>
       </c>
       <c r="F14">
-        <f>F6/(F10*F7)</f>
+        <f t="shared" si="2"/>
         <v>3.8143259090746765E-5</v>
       </c>
       <c r="G14">
-        <f>G6/(G10*G7)</f>
+        <f t="shared" si="2"/>
         <v>1.1831101972035915E-4</v>
       </c>
       <c r="H14">
-        <f>H6/(H10*H7)</f>
+        <f t="shared" si="2"/>
         <v>1.1658395301895289E-4</v>
       </c>
       <c r="I14">
-        <f>I6/(I10*I7)</f>
+        <f t="shared" si="2"/>
         <v>6.4086341037300704E-4</v>
       </c>
       <c r="J14">
@@ -1237,36 +1247,36 @@
         <v>2.9799433815702684E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="16.149999999999999" customHeight="1">
+    <row r="15" spans="1:20" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
         <v>24</v>
       </c>
       <c r="D15">
-        <f>D14/$K14</f>
+        <f t="shared" ref="D15:I15" si="3">D14/$K14</f>
         <v>0.9107385195939991</v>
       </c>
       <c r="E15" s="24">
-        <f>E14/$K14</f>
+        <f t="shared" si="3"/>
         <v>2.0224191777798031</v>
       </c>
       <c r="F15">
-        <f>F14/$K14</f>
+        <f t="shared" si="3"/>
         <v>0.12799994565885792</v>
       </c>
       <c r="G15">
-        <f>G14/$K14</f>
+        <f t="shared" si="3"/>
         <v>0.39702438795335654</v>
       </c>
       <c r="H15">
-        <f>H14/$K14</f>
+        <f t="shared" si="3"/>
         <v>0.39122875199568213</v>
       </c>
       <c r="I15" s="24">
-        <f>I14/$K14</f>
+        <f t="shared" si="3"/>
         <v>2.1505892170183007</v>
       </c>
     </row>
-    <row r="16" spans="1:20" s="13" customFormat="1" ht="15">
+    <row r="16" spans="1:20" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="C16" s="27" t="s">
         <v>25</v>
       </c>
@@ -1275,27 +1285,27 @@
         <v>3</v>
       </c>
       <c r="E16" s="13">
-        <f t="shared" ref="E16:I16" si="2">RANK(E15,$D15:$I15)</f>
+        <f t="shared" ref="E16:I16" si="4">RANK(E15,$D15:$I15)</f>
         <v>2</v>
       </c>
       <c r="F16" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="G16" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="H16" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="I16" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="3:12" ht="14.25" customHeight="1">
+    <row r="17" spans="3:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
         <v>26</v>
       </c>
@@ -1304,23 +1314,23 @@
         <v>1.6525236823750116</v>
       </c>
       <c r="E17">
-        <f t="shared" ref="E17:I17" si="3">E14*E8</f>
+        <f t="shared" ref="E17:I17" si="5">E14*E8</f>
         <v>1.4331479862446814</v>
       </c>
       <c r="F17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.23225430460355706</v>
       </c>
       <c r="G17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.28134360489501403</v>
       </c>
       <c r="H17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.70987968993240413</v>
       </c>
       <c r="I17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.5239731898670108</v>
       </c>
       <c r="J17">
@@ -1335,7 +1345,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="3:12" ht="48" customHeight="1">
+    <row r="18" spans="3:13" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
         <v>24</v>
       </c>
@@ -1344,58 +1354,58 @@
         <v>1.699800092623051</v>
       </c>
       <c r="E18" s="24">
-        <f t="shared" ref="E18:I18" si="4">E17/$K17</f>
+        <f t="shared" ref="E18:I18" si="6">E17/$K17</f>
         <v>1.4741483621342897</v>
       </c>
       <c r="F18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.23889877808579493</v>
       </c>
       <c r="G18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.289392455164175</v>
       </c>
       <c r="H18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.73018836314897306</v>
       </c>
       <c r="I18" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.5675719488437163</v>
       </c>
       <c r="L18" s="29"/>
     </row>
-    <row r="19" spans="3:12" ht="48" customHeight="1">
+    <row r="19" spans="3:13" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
         <v>28</v>
       </c>
       <c r="D19" s="24">
-        <f>D17/MAX($D17:$I17)</f>
+        <f t="shared" ref="D19:I19" si="7">D17/MAX($D17:$I17)</f>
         <v>1</v>
       </c>
       <c r="E19" s="24">
-        <f>E17/MAX($D17:$I17)</f>
+        <f t="shared" si="7"/>
         <v>0.86724807730740483</v>
       </c>
       <c r="F19" s="26">
-        <f>F17/MAX($D17:$I17)</f>
+        <f t="shared" si="7"/>
         <v>0.14054522006593004</v>
       </c>
       <c r="G19" s="26">
-        <f>G17/MAX($D17:$I17)</f>
+        <f t="shared" si="7"/>
         <v>0.17025087621780174</v>
       </c>
       <c r="H19" s="26">
-        <f>H17/MAX($D17:$I17)</f>
+        <f t="shared" si="7"/>
         <v>0.42957308116284487</v>
       </c>
       <c r="I19" s="24">
-        <f>I17/MAX($D17:$I17)</f>
+        <f t="shared" si="7"/>
         <v>0.92220959137889769</v>
       </c>
       <c r="L19" s="25"/>
     </row>
-    <row r="20" spans="3:12" ht="48" customHeight="1">
+    <row r="20" spans="3:13" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
         <v>25</v>
       </c>
@@ -1404,34 +1414,34 @@
         <v>1</v>
       </c>
       <c r="E20" s="26">
-        <f t="shared" ref="E20:I20" si="5">RANK(E19,$D19:$I19,0)</f>
+        <f t="shared" ref="E20:I20" si="8">RANK(E19,$D19:$I19,0)</f>
         <v>3</v>
       </c>
       <c r="F20" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="G20" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="H20" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="I20" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="L20" s="25"/>
     </row>
-    <row r="21" spans="3:12" s="13" customFormat="1" ht="48" customHeight="1">
+    <row r="21" spans="3:13" s="13" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
       <c r="I21" s="14"/>
       <c r="L21" s="22"/>
     </row>
-    <row r="22" spans="3:12" ht="69" customHeight="1">
+    <row r="22" spans="3:13" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="12" t="s">
         <v>29</v>
       </c>
@@ -1440,23 +1450,23 @@
         <v>2.8035376281384413E-5</v>
       </c>
       <c r="E22">
-        <f t="shared" ref="E22:I22" si="6">E14*(E10/E8)</f>
+        <f t="shared" ref="E22:I22" si="9">E14*(E10/E8)</f>
         <v>7.2229098966439321E-5</v>
       </c>
       <c r="F22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>8.0120263388183797E-6</v>
       </c>
       <c r="G22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2.0846222566371102E-5</v>
       </c>
       <c r="H22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3.544044950535093E-5</v>
       </c>
       <c r="I22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>9.5132373364874469E-5</v>
       </c>
       <c r="J22">
@@ -1470,8 +1480,11 @@
       <c r="L22" s="28" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" ht="15">
+      <c r="M22" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
         <v>24</v>
       </c>
@@ -1480,58 +1493,58 @@
         <v>0.64772869468283245</v>
       </c>
       <c r="E23" s="24">
-        <f t="shared" ref="E23:I23" si="7">E22/$K22</f>
+        <f t="shared" ref="E23:I23" si="10">E22/$K22</f>
         <v>1.6687794564296314</v>
       </c>
       <c r="F23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.1851096739391091</v>
       </c>
       <c r="G23" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.48163065109096453</v>
       </c>
       <c r="H23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.81881533768878001</v>
       </c>
       <c r="I23" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2.1979361861686826</v>
       </c>
       <c r="L23" s="29"/>
     </row>
-    <row r="24" spans="3:12" ht="15">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
         <v>28</v>
       </c>
       <c r="D24" s="26">
-        <f>D22/MAX($D22:$I22)</f>
+        <f t="shared" ref="D24:I24" si="11">D22/MAX($D22:$I22)</f>
         <v>0.29469858986757769</v>
       </c>
       <c r="E24" s="24">
-        <f>E22/MAX($D22:$I22)</f>
+        <f t="shared" si="11"/>
         <v>0.75924836532153972</v>
       </c>
       <c r="F24" s="26">
-        <f>F22/MAX($D22:$I22)</f>
+        <f t="shared" si="11"/>
         <v>8.4219767208884161E-2</v>
       </c>
       <c r="G24" s="26">
-        <f>G22/MAX($D22:$I22)</f>
+        <f t="shared" si="11"/>
         <v>0.21912858713633343</v>
       </c>
       <c r="H24" s="26">
-        <f>H22/MAX($D22:$I22)</f>
+        <f t="shared" si="11"/>
         <v>0.37253826696219622</v>
       </c>
       <c r="I24" s="24">
-        <f>I22/MAX($D22:$I22)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="L24" s="25"/>
     </row>
-    <row r="25" spans="3:12" ht="15">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
         <v>25</v>
       </c>
@@ -1540,36 +1553,32 @@
         <v>4</v>
       </c>
       <c r="E25" s="26">
-        <f t="shared" ref="E25:I25" si="8">RANK(E24,$D24:$I24,0)</f>
+        <f t="shared" ref="E25:I25" si="12">RANK(E24,$D24:$I24,0)</f>
         <v>2</v>
       </c>
       <c r="F25" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="G25" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="H25" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="I25" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="L25" s="25"/>
     </row>
-    <row r="26" spans="3:12" ht="15"/>
-    <row r="27" spans="3:12" ht="137.25">
+    <row r="27" spans="3:13" ht="112" x14ac:dyDescent="0.2">
       <c r="L27" s="12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="3:12" ht="15"/>
-    <row r="29" spans="3:12" ht="15"/>
-    <row r="30" spans="3:12" ht="15"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="L17:L18"/>
@@ -1597,6 +1606,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6fc57203-6a88-448e-ad65-d9026c026bbd">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="0b1db0e7-37ee-4a62-b99b-e67908a51002" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B7823B975CC5EC41B7C348A8AA2D3A06" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d1d7e16feec3158b2ae1a92b7a99868">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6fc57203-6a88-448e-ad65-d9026c026bbd" xmlns:ns3="0b1db0e7-37ee-4a62-b99b-e67908a51002" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ee991b5f3b4c336311abdbfd85232a5c" ns2:_="" ns3:_="">
     <xsd:import namespace="6fc57203-6a88-448e-ad65-d9026c026bbd"/>
@@ -1811,25 +1831,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6fc57203-6a88-448e-ad65-d9026c026bbd">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="0b1db0e7-37ee-4a62-b99b-e67908a51002" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3BE1923-2455-4D53-B45B-3C8649701897}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3BE1923-2455-4D53-B45B-3C8649701897}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1AA9C84B-E8EA-4A2E-BFE8-2886719B4F68}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{129A4ACA-3D42-4E14-8940-242FF1B0EF2D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6fc57203-6a88-448e-ad65-d9026c026bbd"/>
+    <ds:schemaRef ds:uri="0b1db0e7-37ee-4a62-b99b-e67908a51002"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{129A4ACA-3D42-4E14-8940-242FF1B0EF2D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1AA9C84B-E8EA-4A2E-BFE8-2886719B4F68}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="6fc57203-6a88-448e-ad65-d9026c026bbd"/>
+    <ds:schemaRef ds:uri="0b1db0e7-37ee-4a62-b99b-e67908a51002"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>